--- a/Data/Preguntas.xlsx
+++ b/Data/Preguntas.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$685</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2250,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:H692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A564" workbookViewId="0">
-      <selection activeCell="B591" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="G674" sqref="G674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7738,6 +7741,12 @@
         <v>626</v>
       </c>
     </row>
+    <row r="692" spans="8:8">
+      <c r="H692">
+        <f>624/704</f>
+        <v>0.88636363636363635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
